--- a/data/pca/factorExposure/factorExposure_2010-03-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01545278690718065</v>
+        <v>-0.01685320657362963</v>
       </c>
       <c r="C2">
-        <v>0.004610270778399112</v>
+        <v>0.0009735929536867142</v>
       </c>
       <c r="D2">
-        <v>0.01273468159631327</v>
+        <v>0.007496596870559298</v>
       </c>
       <c r="E2">
-        <v>-0.01698479929345671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0003161759676244725</v>
+      </c>
+      <c r="F2">
+        <v>0.009258730037158991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1247410635505739</v>
+        <v>-0.09373038203719009</v>
       </c>
       <c r="C4">
-        <v>0.03435014036010351</v>
+        <v>0.01576269497391651</v>
       </c>
       <c r="D4">
-        <v>0.05620944271659752</v>
+        <v>0.08404069461635394</v>
       </c>
       <c r="E4">
-        <v>-0.006520753838681152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02994922971678441</v>
+      </c>
+      <c r="F4">
+        <v>-0.02933276571032309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1175736325843893</v>
+        <v>-0.1548893986584496</v>
       </c>
       <c r="C6">
-        <v>-0.01925255271204871</v>
+        <v>0.02454746240314344</v>
       </c>
       <c r="D6">
-        <v>-0.0006109762711703685</v>
+        <v>-0.02353952518522915</v>
       </c>
       <c r="E6">
-        <v>-0.01817984073331231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01026271630027006</v>
+      </c>
+      <c r="F6">
+        <v>-0.04805211896026371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07501704055924747</v>
+        <v>-0.05952343753156428</v>
       </c>
       <c r="C7">
-        <v>0.01248598486294279</v>
+        <v>-0.001029488599406958</v>
       </c>
       <c r="D7">
-        <v>0.07144397243171667</v>
+        <v>0.05305424290901081</v>
       </c>
       <c r="E7">
-        <v>-0.05263493482067203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01353334714854456</v>
+      </c>
+      <c r="F7">
+        <v>-0.04457174606335583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05156650683576306</v>
+        <v>-0.05806080918770227</v>
       </c>
       <c r="C8">
-        <v>0.002487584240473215</v>
+        <v>-0.01339570487350073</v>
       </c>
       <c r="D8">
-        <v>0.02386759081658935</v>
+        <v>0.03184453721474505</v>
       </c>
       <c r="E8">
-        <v>-0.0195871019525069</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01596895729333151</v>
+      </c>
+      <c r="F8">
+        <v>0.02870032640507574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09435194771891545</v>
+        <v>-0.07141725482253286</v>
       </c>
       <c r="C9">
-        <v>0.0434957985230156</v>
+        <v>0.01177162381133454</v>
       </c>
       <c r="D9">
-        <v>0.03552785756949724</v>
+        <v>0.08324900237159341</v>
       </c>
       <c r="E9">
-        <v>-0.01799005028186735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.02366321708305812</v>
+      </c>
+      <c r="F9">
+        <v>-0.04878126926238249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0815389253485963</v>
+        <v>-0.09530292608001861</v>
       </c>
       <c r="C10">
-        <v>-0.1320196751828948</v>
+        <v>0.01791745207039222</v>
       </c>
       <c r="D10">
-        <v>-0.1234742686964821</v>
+        <v>-0.1686885116593828</v>
       </c>
       <c r="E10">
-        <v>-0.01035360867993582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.03862241883857092</v>
+      </c>
+      <c r="F10">
+        <v>0.05587536309038818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08488980617793365</v>
+        <v>-0.0873896189494441</v>
       </c>
       <c r="C11">
-        <v>0.01915029495897731</v>
+        <v>0.01149993623798158</v>
       </c>
       <c r="D11">
-        <v>0.05378339807816523</v>
+        <v>0.1156719130934221</v>
       </c>
       <c r="E11">
-        <v>-0.0408916758953202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04761891151753794</v>
+      </c>
+      <c r="F11">
+        <v>-0.01998830406803352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09078686338567549</v>
+        <v>-0.09198030097937182</v>
       </c>
       <c r="C12">
-        <v>0.03041867591343688</v>
+        <v>0.009003818436225363</v>
       </c>
       <c r="D12">
-        <v>0.07434097571356361</v>
+        <v>0.1261498139870351</v>
       </c>
       <c r="E12">
-        <v>-0.04506466004538076</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.04751472239236397</v>
+      </c>
+      <c r="F12">
+        <v>-0.01904589098530406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04290249783701456</v>
+        <v>-0.04327029171069269</v>
       </c>
       <c r="C13">
-        <v>0.03627934064092618</v>
+        <v>0.004065382824096934</v>
       </c>
       <c r="D13">
-        <v>-0.00210923971963947</v>
+        <v>0.048212272811213</v>
       </c>
       <c r="E13">
-        <v>-0.004620798612323377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01264667757941648</v>
+      </c>
+      <c r="F13">
+        <v>-0.008680154986926257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02842750597171861</v>
+        <v>-0.0225210350901004</v>
       </c>
       <c r="C14">
-        <v>0.0003667872064642997</v>
+        <v>0.01412872032269027</v>
       </c>
       <c r="D14">
-        <v>0.00889105531976892</v>
+        <v>0.03209569732609541</v>
       </c>
       <c r="E14">
-        <v>-0.005858181914080622</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.01766463102958159</v>
+      </c>
+      <c r="F14">
+        <v>-0.01721936429057116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02503043855422928</v>
+        <v>-0.0315137308330465</v>
       </c>
       <c r="C15">
-        <v>0.02000811610567025</v>
+        <v>0.00525501242829564</v>
       </c>
       <c r="D15">
-        <v>0.00236313466279745</v>
+        <v>0.0450418429681891</v>
       </c>
       <c r="E15">
-        <v>-0.02005828476719645</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.007515960128674178</v>
+      </c>
+      <c r="F15">
+        <v>-0.02876040955546885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.09131474473402287</v>
+        <v>-0.07319409313737028</v>
       </c>
       <c r="C16">
-        <v>0.01379932315525605</v>
+        <v>0.002990498993139441</v>
       </c>
       <c r="D16">
-        <v>0.06894122661896177</v>
+        <v>0.121677276470222</v>
       </c>
       <c r="E16">
-        <v>-0.05043190661271677</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.06252749618724882</v>
+      </c>
+      <c r="F16">
+        <v>-0.02494219735004918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02452699857437329</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003807249808742055</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02047408952770836</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.00524692313131029</v>
+      </c>
+      <c r="F18">
+        <v>0.01792970906154385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0503441553784485</v>
+        <v>-0.06029129683291112</v>
       </c>
       <c r="C20">
-        <v>-0.002376480286916708</v>
+        <v>0.0003990923099320643</v>
       </c>
       <c r="D20">
-        <v>0.04530124835727457</v>
+        <v>0.07637646706679746</v>
       </c>
       <c r="E20">
-        <v>0.0009830713100683207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.05592245661084617</v>
+      </c>
+      <c r="F20">
+        <v>-0.02371325394162951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02274991692916636</v>
+        <v>-0.03904412696181277</v>
       </c>
       <c r="C21">
-        <v>-0.00722739943540531</v>
+        <v>0.00669252471730321</v>
       </c>
       <c r="D21">
-        <v>0.002152997546262178</v>
+        <v>0.03559918312772315</v>
       </c>
       <c r="E21">
-        <v>0.03027659531224342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.007741674566705917</v>
+      </c>
+      <c r="F21">
+        <v>0.02100384370120172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03017817507356548</v>
+        <v>-0.0440223200796413</v>
       </c>
       <c r="C22">
-        <v>-0.01412373713547319</v>
+        <v>0.001181288696198838</v>
       </c>
       <c r="D22">
-        <v>-0.02262897470385773</v>
+        <v>0.002088540910715136</v>
       </c>
       <c r="E22">
-        <v>-0.06896613503298997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.02871525318801232</v>
+      </c>
+      <c r="F22">
+        <v>0.009028392556870209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03032164078730622</v>
+        <v>-0.04406624959564436</v>
       </c>
       <c r="C23">
-        <v>-0.01427755541405739</v>
+        <v>0.001203000253721169</v>
       </c>
       <c r="D23">
-        <v>-0.02224713220686073</v>
+        <v>0.002167818698273301</v>
       </c>
       <c r="E23">
-        <v>-0.0709588549597316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.02903179978939443</v>
+      </c>
+      <c r="F23">
+        <v>0.008503422376621932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09613770551810205</v>
+        <v>-0.07933810665349197</v>
       </c>
       <c r="C24">
-        <v>0.01959310995445713</v>
+        <v>0.003065880908904306</v>
       </c>
       <c r="D24">
-        <v>0.07305209982928669</v>
+        <v>0.1193250679374385</v>
       </c>
       <c r="E24">
-        <v>-0.03984806901819308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.05067311264044933</v>
+      </c>
+      <c r="F24">
+        <v>-0.02257149981800543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09737296280581402</v>
+        <v>-0.0848548570679007</v>
       </c>
       <c r="C25">
-        <v>0.01066641766983312</v>
+        <v>0.005273531228215569</v>
       </c>
       <c r="D25">
-        <v>0.05595107363012674</v>
+        <v>0.1084724657000222</v>
       </c>
       <c r="E25">
-        <v>-0.04649223393982384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03346197904516771</v>
+      </c>
+      <c r="F25">
+        <v>-0.02658511212890016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03798174953224418</v>
+        <v>-0.05490723299899607</v>
       </c>
       <c r="C26">
-        <v>-0.02786282053468076</v>
+        <v>0.01456224597179057</v>
       </c>
       <c r="D26">
-        <v>-0.001624686749378212</v>
+        <v>0.0409498615743692</v>
       </c>
       <c r="E26">
-        <v>-0.005151422715760076</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02592577275131094</v>
+      </c>
+      <c r="F26">
+        <v>0.009940905942522449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.0827242221954136</v>
+        <v>-0.1434971696475378</v>
       </c>
       <c r="C28">
-        <v>-0.1745895814235389</v>
+        <v>0.01666040737304142</v>
       </c>
       <c r="D28">
-        <v>-0.2656931701220338</v>
+        <v>-0.2639856701247386</v>
       </c>
       <c r="E28">
-        <v>-0.02358110555609805</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.06973584912253236</v>
+      </c>
+      <c r="F28">
+        <v>-0.01929543268864208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02777136127892752</v>
+        <v>-0.0272931970495329</v>
       </c>
       <c r="C29">
-        <v>0.01017432040707222</v>
+        <v>0.00833255996906308</v>
       </c>
       <c r="D29">
-        <v>0.000586345054819215</v>
+        <v>0.03136145933865794</v>
       </c>
       <c r="E29">
-        <v>-0.00858339444541667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.01148484589272715</v>
+      </c>
+      <c r="F29">
+        <v>0.01265460679494795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1173398596456663</v>
+        <v>-0.06252734494311411</v>
       </c>
       <c r="C30">
-        <v>0.06275378455979873</v>
+        <v>0.004397862531814621</v>
       </c>
       <c r="D30">
-        <v>0.06392761625124747</v>
+        <v>0.08723756619145878</v>
       </c>
       <c r="E30">
-        <v>-0.0368975017430162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02375455423287223</v>
+      </c>
+      <c r="F30">
+        <v>-0.09359389676918128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0290327760751144</v>
+        <v>-0.04829925173026577</v>
       </c>
       <c r="C31">
-        <v>0.004398657217903906</v>
+        <v>0.01503199926028242</v>
       </c>
       <c r="D31">
-        <v>0.03246588629747162</v>
+        <v>0.02644781206439279</v>
       </c>
       <c r="E31">
-        <v>-0.02053850566401642</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02756975627053075</v>
+      </c>
+      <c r="F31">
+        <v>0.005653693943621985</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06163565687515372</v>
+        <v>-0.04807092648436292</v>
       </c>
       <c r="C32">
-        <v>-0.008049966134218158</v>
+        <v>-0.0006071243320329789</v>
       </c>
       <c r="D32">
-        <v>0.03046668741891742</v>
+        <v>0.03251554069554779</v>
       </c>
       <c r="E32">
-        <v>-0.005752737376601586</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.03011581079690609</v>
+      </c>
+      <c r="F32">
+        <v>-0.006381317321180567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1031697531878173</v>
+        <v>-0.0895264275769914</v>
       </c>
       <c r="C33">
-        <v>0.04553975989220645</v>
+        <v>0.008479406686375332</v>
       </c>
       <c r="D33">
-        <v>0.05128443950342457</v>
+        <v>0.09806194705635822</v>
       </c>
       <c r="E33">
-        <v>-0.08737656551394507</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.04618614312006484</v>
+      </c>
+      <c r="F33">
+        <v>-0.03884268650288064</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0866803331067163</v>
+        <v>-0.06710354244906813</v>
       </c>
       <c r="C34">
-        <v>0.01349069648688575</v>
+        <v>0.01193540941049262</v>
       </c>
       <c r="D34">
-        <v>0.06345708514842792</v>
+        <v>0.1024328671886097</v>
       </c>
       <c r="E34">
-        <v>-0.04437047659937247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03506633965600665</v>
+      </c>
+      <c r="F34">
+        <v>-0.03530196395826108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01387955713590031</v>
+        <v>-0.02466809754716483</v>
       </c>
       <c r="C35">
-        <v>0.01398626097907897</v>
+        <v>0.00235780801766572</v>
       </c>
       <c r="D35">
-        <v>0.002343373295822508</v>
+        <v>0.01216607133297858</v>
       </c>
       <c r="E35">
-        <v>-0.006376741166131071</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.0108141884230149</v>
+      </c>
+      <c r="F35">
+        <v>-0.006343856738602048</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02446899897907269</v>
+        <v>-0.02446669910830783</v>
       </c>
       <c r="C36">
-        <v>0.01067610754531507</v>
+        <v>0.007565223847087497</v>
       </c>
       <c r="D36">
-        <v>0.0002002731319472037</v>
+        <v>0.03780228171906334</v>
       </c>
       <c r="E36">
-        <v>-0.001581158081385266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0168654502942727</v>
+      </c>
+      <c r="F36">
+        <v>-0.01288980433957047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.00669243619192867</v>
+        <v>-0.001495753794235423</v>
       </c>
       <c r="C38">
-        <v>0.002354542984533077</v>
+        <v>0.0002266949456887426</v>
       </c>
       <c r="D38">
-        <v>0.004092562178958309</v>
+        <v>0.0008778517638676598</v>
       </c>
       <c r="E38">
-        <v>-0.003277076862703578</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001237828908139173</v>
+      </c>
+      <c r="F38">
+        <v>0.0009572748232755538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.146788545342541</v>
+        <v>-0.1076070470102119</v>
       </c>
       <c r="C39">
-        <v>0.05343825689035849</v>
+        <v>0.01660683765728051</v>
       </c>
       <c r="D39">
-        <v>0.1041856827333542</v>
+        <v>0.1542774150865919</v>
       </c>
       <c r="E39">
-        <v>-0.0771158565738049</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.06107626101772138</v>
+      </c>
+      <c r="F39">
+        <v>-0.02458103240893239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.007605589821647591</v>
+        <v>-0.03739121025084217</v>
       </c>
       <c r="C40">
-        <v>0.004308919057458418</v>
+        <v>0.00717888503617387</v>
       </c>
       <c r="D40">
-        <v>0.01604221725416227</v>
+        <v>0.03384911632622631</v>
       </c>
       <c r="E40">
-        <v>0.0143675228334703</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.00292342783712708</v>
+      </c>
+      <c r="F40">
+        <v>0.0152012655337898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01954702985712952</v>
+        <v>-0.02636805028775768</v>
       </c>
       <c r="C41">
-        <v>-0.0280378686233409</v>
+        <v>0.006519084053827217</v>
       </c>
       <c r="D41">
-        <v>0.007370339151093023</v>
+        <v>0.01139267208345016</v>
       </c>
       <c r="E41">
-        <v>-0.009026234196436167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01256361471022202</v>
+      </c>
+      <c r="F41">
+        <v>0.008770705742132181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02864862913056275</v>
+        <v>-0.04032164629828253</v>
       </c>
       <c r="C43">
-        <v>-0.02659168881677135</v>
+        <v>0.006628556277813363</v>
       </c>
       <c r="D43">
-        <v>0.02187622724555476</v>
+        <v>0.02037230348508222</v>
       </c>
       <c r="E43">
-        <v>-0.03549441029773252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02421502328176978</v>
+      </c>
+      <c r="F43">
+        <v>0.01310796239840561</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1372191879731975</v>
+        <v>-0.07594953885952846</v>
       </c>
       <c r="C44">
-        <v>0.06801326016992887</v>
+        <v>0.02133313439165938</v>
       </c>
       <c r="D44">
-        <v>0.07929884297341393</v>
+        <v>0.09648340594732453</v>
       </c>
       <c r="E44">
-        <v>-0.04723164065588874</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.07295643307741689</v>
+      </c>
+      <c r="F44">
+        <v>-0.1708810503173276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01432809618513363</v>
+        <v>-0.02304030858305633</v>
       </c>
       <c r="C46">
-        <v>-0.02329436584653932</v>
+        <v>0.003534105978601656</v>
       </c>
       <c r="D46">
-        <v>-0.003428370119460101</v>
+        <v>0.01238523487677855</v>
       </c>
       <c r="E46">
-        <v>-0.03687413517943067</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02236502835218911</v>
+      </c>
+      <c r="F46">
+        <v>-0.0001492009189061308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03956829712484491</v>
+        <v>-0.05152394355433822</v>
       </c>
       <c r="C47">
-        <v>-0.01089391631292218</v>
+        <v>0.003172250761570569</v>
       </c>
       <c r="D47">
-        <v>0.007226481850736145</v>
+        <v>0.01332275380600819</v>
       </c>
       <c r="E47">
-        <v>-0.006270512431613719</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.0228881437486512</v>
+      </c>
+      <c r="F47">
+        <v>0.03964159245203745</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03942823993483806</v>
+        <v>-0.0476101634036276</v>
       </c>
       <c r="C48">
-        <v>0.01217991306593719</v>
+        <v>0.002684328344554792</v>
       </c>
       <c r="D48">
-        <v>-0.002967202211641447</v>
+        <v>0.05156202072496351</v>
       </c>
       <c r="E48">
-        <v>-0.01062000130327698</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004796269236769094</v>
+      </c>
+      <c r="F48">
+        <v>-0.006087790163154049</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2214314690340862</v>
+        <v>-0.2026476530916712</v>
       </c>
       <c r="C49">
-        <v>-0.06079030392363991</v>
+        <v>0.01745004497680138</v>
       </c>
       <c r="D49">
-        <v>0.03101379583398099</v>
+        <v>-0.01002879031560866</v>
       </c>
       <c r="E49">
-        <v>0.02202440270242647</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.033022100234083</v>
+      </c>
+      <c r="F49">
+        <v>-0.02986573516070849</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0390368581344987</v>
+        <v>-0.04824295053848658</v>
       </c>
       <c r="C50">
-        <v>-0.002745606494778978</v>
+        <v>0.01105155328548039</v>
       </c>
       <c r="D50">
-        <v>0.03873537092325168</v>
+        <v>0.02606637708282101</v>
       </c>
       <c r="E50">
-        <v>-0.01606269439755727</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02941388425039001</v>
+      </c>
+      <c r="F50">
+        <v>-0.006660195742503158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.009268544785075085</v>
+        <v>-0.002141875593527253</v>
       </c>
       <c r="C51">
-        <v>-0.009243534421796576</v>
+        <v>0.0005333794258628997</v>
       </c>
       <c r="D51">
-        <v>-0.0124295298286985</v>
+        <v>-0.002165441336947261</v>
       </c>
       <c r="E51">
-        <v>-0.01521513400788502</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>7.905697772798681e-06</v>
+      </c>
+      <c r="F51">
+        <v>-0.004076052696490604</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1310253002011702</v>
+        <v>-0.1447416504074624</v>
       </c>
       <c r="C52">
-        <v>0.07182598238593571</v>
+        <v>0.01383394137428884</v>
       </c>
       <c r="D52">
-        <v>0.06287369694812177</v>
+        <v>0.04937597446273127</v>
       </c>
       <c r="E52">
-        <v>0.002231309438247704</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>-0.02426109054615718</v>
+      </c>
+      <c r="F52">
+        <v>-0.03844894357339324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1545640899956849</v>
+        <v>-0.1736990592674112</v>
       </c>
       <c r="C53">
-        <v>0.01308360839958423</v>
+        <v>0.01670244074111544</v>
       </c>
       <c r="D53">
-        <v>0.01417259706765748</v>
+        <v>0.008300941559869279</v>
       </c>
       <c r="E53">
-        <v>0.01281294770534585</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03484096617771806</v>
+      </c>
+      <c r="F53">
+        <v>-0.06911689892810748</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.04800389814000001</v>
+        <v>-0.0221218917298642</v>
       </c>
       <c r="C54">
-        <v>0.001453168958698388</v>
+        <v>0.01223862617405649</v>
       </c>
       <c r="D54">
-        <v>0.0190041356459536</v>
+        <v>0.03387333175998375</v>
       </c>
       <c r="E54">
-        <v>-0.01575780827686419</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01491946285614216</v>
+      </c>
+      <c r="F54">
+        <v>0.002559560587002468</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08656078948681908</v>
+        <v>-0.114195628288489</v>
       </c>
       <c r="C55">
-        <v>0.02940689959028646</v>
+        <v>0.01541291369452177</v>
       </c>
       <c r="D55">
-        <v>0.005867864508603056</v>
+        <v>0.009361468525843113</v>
       </c>
       <c r="E55">
-        <v>-0.03924456018350144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.03068452100899203</v>
+      </c>
+      <c r="F55">
+        <v>-0.04491583071222296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1586400844795897</v>
+        <v>-0.1773241061311487</v>
       </c>
       <c r="C56">
-        <v>0.01520558668225905</v>
+        <v>0.01418101283407806</v>
       </c>
       <c r="D56">
-        <v>0.0457659633735422</v>
+        <v>0.005618854763459865</v>
       </c>
       <c r="E56">
-        <v>-0.02203601853198909</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04061356035525664</v>
+      </c>
+      <c r="F56">
+        <v>-0.04769328099095522</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04220528372120072</v>
+        <v>-0.04567727886159106</v>
       </c>
       <c r="C58">
-        <v>-0.01241563951289311</v>
+        <v>0.00134913725322003</v>
       </c>
       <c r="D58">
-        <v>0.005240552616385138</v>
+        <v>0.06758323991396081</v>
       </c>
       <c r="E58">
-        <v>0.0101061886700557</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02539468184393248</v>
+      </c>
+      <c r="F58">
+        <v>0.04051520966288336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1498021110125206</v>
+        <v>-0.1723619587849843</v>
       </c>
       <c r="C59">
-        <v>-0.166535763516093</v>
+        <v>0.01724314068732526</v>
       </c>
       <c r="D59">
-        <v>-0.2264458537756907</v>
+        <v>-0.2228961672698908</v>
       </c>
       <c r="E59">
-        <v>-0.0345948710201885</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.04858775540967826</v>
+      </c>
+      <c r="F59">
+        <v>0.03016705325058262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2771461324446347</v>
+        <v>-0.2352919367986036</v>
       </c>
       <c r="C60">
-        <v>0.05212253284163683</v>
+        <v>-0.004423935766300393</v>
       </c>
       <c r="D60">
-        <v>0.09076255604855005</v>
+        <v>0.04443281572837087</v>
       </c>
       <c r="E60">
-        <v>0.08650506065217228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01164951792199086</v>
+      </c>
+      <c r="F60">
+        <v>0.022839013707704</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1155077407656109</v>
+        <v>-0.08332470639257022</v>
       </c>
       <c r="C61">
-        <v>0.04564527489793227</v>
+        <v>0.01274216843208665</v>
       </c>
       <c r="D61">
-        <v>0.05249713208943513</v>
+        <v>0.1155515423900875</v>
       </c>
       <c r="E61">
-        <v>-0.05829410911166404</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04100051375648612</v>
+      </c>
+      <c r="F61">
+        <v>-0.01274549856010705</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1626990813545885</v>
+        <v>-0.169884192044829</v>
       </c>
       <c r="C62">
-        <v>0.01073671797288273</v>
+        <v>0.01773982163556806</v>
       </c>
       <c r="D62">
-        <v>0.02724699784471953</v>
+        <v>0.009578984891823147</v>
       </c>
       <c r="E62">
-        <v>-0.006836503043893099</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.03656252975986349</v>
+      </c>
+      <c r="F62">
+        <v>-0.02920691499815026</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0424440207928747</v>
+        <v>-0.04244473486940081</v>
       </c>
       <c r="C63">
-        <v>0.005151304940867523</v>
+        <v>0.002715777404459663</v>
       </c>
       <c r="D63">
-        <v>-0.005027813937962001</v>
+        <v>0.05590563565447695</v>
       </c>
       <c r="E63">
-        <v>-0.02466659837397378</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02076226777699117</v>
+      </c>
+      <c r="F63">
+        <v>-0.006698113735231556</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09217493027728639</v>
+        <v>-0.1115065844513466</v>
       </c>
       <c r="C64">
-        <v>-0.00419434109158651</v>
+        <v>0.01103431751364062</v>
       </c>
       <c r="D64">
-        <v>0.01696139727624254</v>
+        <v>0.0419781701144838</v>
       </c>
       <c r="E64">
-        <v>-0.001746483107070122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02071586372645791</v>
+      </c>
+      <c r="F64">
+        <v>-0.02889336421321965</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1173576910146664</v>
+        <v>-0.1461772449857526</v>
       </c>
       <c r="C65">
-        <v>0.008856704179548308</v>
+        <v>0.03116615462997168</v>
       </c>
       <c r="D65">
-        <v>-0.01745698437466323</v>
+        <v>-0.04255514222763025</v>
       </c>
       <c r="E65">
-        <v>0.006384959718987688</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.0007988466558451542</v>
+      </c>
+      <c r="F65">
+        <v>-0.04235264349660781</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1674377892900022</v>
+        <v>-0.1285383299383897</v>
       </c>
       <c r="C66">
-        <v>0.04974799355884287</v>
+        <v>0.01435506635835739</v>
       </c>
       <c r="D66">
-        <v>0.1175148770063183</v>
+        <v>0.1434465495108168</v>
       </c>
       <c r="E66">
-        <v>-0.08251904859006962</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.06812354532015885</v>
+      </c>
+      <c r="F66">
+        <v>-0.0297063135282169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.07185912099376897</v>
+        <v>-0.06326025921768558</v>
       </c>
       <c r="C67">
-        <v>0.03977634062830546</v>
+        <v>0.002913730313745453</v>
       </c>
       <c r="D67">
-        <v>0.01613155338375086</v>
+        <v>0.05622361667417793</v>
       </c>
       <c r="E67">
-        <v>-0.07655348020495484</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01856514848134567</v>
+      </c>
+      <c r="F67">
+        <v>0.03878988985371402</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.07572436326965949</v>
+        <v>-0.1171583167402464</v>
       </c>
       <c r="C68">
-        <v>-0.1533636638341176</v>
+        <v>0.02714681573901051</v>
       </c>
       <c r="D68">
-        <v>-0.2328910392592792</v>
+        <v>-0.2606369419149475</v>
       </c>
       <c r="E68">
-        <v>-0.01468412328798958</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.08649535571547343</v>
+      </c>
+      <c r="F68">
+        <v>-0.01934208532345888</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03489441460413097</v>
+        <v>-0.03914511458135243</v>
       </c>
       <c r="C69">
-        <v>0.009594133374083767</v>
+        <v>0.0008509796991608906</v>
       </c>
       <c r="D69">
-        <v>-0.01044215247738687</v>
+        <v>0.008634171660832338</v>
       </c>
       <c r="E69">
-        <v>-0.0301056381736613</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02409081311280349</v>
+      </c>
+      <c r="F69">
+        <v>0.005440970604309116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02670317398737967</v>
+        <v>-0.06228334476118566</v>
       </c>
       <c r="C70">
-        <v>0.01057865600767074</v>
+        <v>-0.02869282717711793</v>
       </c>
       <c r="D70">
-        <v>-0.02939991409325014</v>
+        <v>0.03008475829942654</v>
       </c>
       <c r="E70">
-        <v>-0.03715316297514424</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.04786409835151441</v>
+      </c>
+      <c r="F70">
+        <v>0.2327809523768626</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.08879210897648601</v>
+        <v>-0.1367737203816271</v>
       </c>
       <c r="C71">
-        <v>-0.1623422647054248</v>
+        <v>0.03155067103036199</v>
       </c>
       <c r="D71">
-        <v>-0.2507277199175971</v>
+        <v>-0.2745347496109378</v>
       </c>
       <c r="E71">
-        <v>-0.02561354108790899</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.096708518895662</v>
+      </c>
+      <c r="F71">
+        <v>-0.02399190026515894</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1369842937937113</v>
+        <v>-0.1408871302820555</v>
       </c>
       <c r="C72">
-        <v>-0.03064584212954917</v>
+        <v>0.02479294359759296</v>
       </c>
       <c r="D72">
-        <v>0.0002922195910114963</v>
+        <v>0.002636380357107191</v>
       </c>
       <c r="E72">
-        <v>-0.01796783753551279</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.04354234571149951</v>
+      </c>
+      <c r="F72">
+        <v>-0.03027369624619164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2315006639040894</v>
+        <v>-0.2024391560450193</v>
       </c>
       <c r="C73">
-        <v>-0.01563027476108386</v>
+        <v>0.01161943422675431</v>
       </c>
       <c r="D73">
-        <v>0.03355541405474072</v>
+        <v>0.01588333575896284</v>
       </c>
       <c r="E73">
-        <v>-0.05457562228674123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06630642577512645</v>
+      </c>
+      <c r="F73">
+        <v>-0.02595467908658508</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1101813210267487</v>
+        <v>-0.09427704331639049</v>
       </c>
       <c r="C74">
-        <v>-0.006524761302487386</v>
+        <v>0.0121647604979804</v>
       </c>
       <c r="D74">
-        <v>0.039020892380386</v>
+        <v>0.02000759283357026</v>
       </c>
       <c r="E74">
-        <v>-0.02719643161495883</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.04877448015439669</v>
+      </c>
+      <c r="F74">
+        <v>-0.05073509130009009</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1257221602046002</v>
+        <v>-0.1293415085611685</v>
       </c>
       <c r="C75">
-        <v>0.009863310358516232</v>
+        <v>0.02647140244823913</v>
       </c>
       <c r="D75">
-        <v>0.05241165055757321</v>
+        <v>0.03319965695823564</v>
       </c>
       <c r="E75">
-        <v>-0.01991993704714819</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.06088001744510162</v>
+      </c>
+      <c r="F75">
+        <v>-0.01520012903621961</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01471925748934815</v>
+        <v>-0.003137764100420613</v>
       </c>
       <c r="C76">
-        <v>-0.009709659591261206</v>
+        <v>0.0007585959581404314</v>
       </c>
       <c r="D76">
-        <v>-0.01204917816081041</v>
+        <v>-0.002250766490923073</v>
       </c>
       <c r="E76">
-        <v>-0.0114739601448098</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0004102243371297624</v>
+      </c>
+      <c r="F76">
+        <v>-0.003987997176880397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08185083936022472</v>
+        <v>-0.07888376015871661</v>
       </c>
       <c r="C77">
-        <v>0.06037819113718011</v>
+        <v>0.008683385544983583</v>
       </c>
       <c r="D77">
-        <v>0.1001425782694128</v>
+        <v>0.1180366152720029</v>
       </c>
       <c r="E77">
-        <v>0.01055901672597767</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.03928442861173104</v>
+      </c>
+      <c r="F77">
+        <v>-0.02868770213115769</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09682883650982337</v>
+        <v>-0.1034905466462858</v>
       </c>
       <c r="C78">
-        <v>-0.102532053564281</v>
+        <v>0.03979571600244114</v>
       </c>
       <c r="D78">
-        <v>0.08749913069596432</v>
+        <v>0.1184762786347166</v>
       </c>
       <c r="E78">
-        <v>-0.1750518191987184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.08065187983465283</v>
+      </c>
+      <c r="F78">
+        <v>-0.06075805766157136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.140377898961306</v>
+        <v>-0.163999314930497</v>
       </c>
       <c r="C79">
-        <v>-0.009830300853496865</v>
+        <v>0.02047394575046923</v>
       </c>
       <c r="D79">
-        <v>0.06935053833452769</v>
+        <v>0.01863316519592281</v>
       </c>
       <c r="E79">
-        <v>3.228695549417452e-08</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.04990385020403722</v>
+      </c>
+      <c r="F79">
+        <v>-0.006246551197267881</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08452081317698397</v>
+        <v>-0.0812376131152453</v>
       </c>
       <c r="C80">
-        <v>0.05519271738851519</v>
+        <v>-0.0007270693018293005</v>
       </c>
       <c r="D80">
-        <v>0.05174482363922227</v>
+        <v>0.05748393787827656</v>
       </c>
       <c r="E80">
-        <v>-0.06108460176898181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03626341455715351</v>
+      </c>
+      <c r="F80">
+        <v>0.02619746821039936</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1471657522468124</v>
+        <v>-0.1231693243514176</v>
       </c>
       <c r="C81">
-        <v>0.008093837217658937</v>
+        <v>0.03027936565252961</v>
       </c>
       <c r="D81">
-        <v>0.07518983754609582</v>
+        <v>0.01723701969759275</v>
       </c>
       <c r="E81">
-        <v>-0.03558494028514162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06018097027127235</v>
+      </c>
+      <c r="F81">
+        <v>-0.01075831757501151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.171570747996329</v>
+        <v>-0.1643338989527643</v>
       </c>
       <c r="C82">
-        <v>0.03496714421031474</v>
+        <v>0.02242793348234925</v>
       </c>
       <c r="D82">
-        <v>0.05324875327448769</v>
+        <v>0.00975754320829285</v>
       </c>
       <c r="E82">
-        <v>-0.02893763815196302</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.03357426316038744</v>
+      </c>
+      <c r="F82">
+        <v>-0.07185531631556955</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07992712055095111</v>
+        <v>-0.06243351428718785</v>
       </c>
       <c r="C83">
-        <v>0.02972508350187026</v>
+        <v>0.003073223386994027</v>
       </c>
       <c r="D83">
-        <v>0.03051096907060944</v>
+        <v>0.05011375830880543</v>
       </c>
       <c r="E83">
-        <v>0.04047885864298386</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.00575887358879073</v>
+      </c>
+      <c r="F83">
+        <v>0.0391954292086517</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06907103759146786</v>
+        <v>-0.05911672128978652</v>
       </c>
       <c r="C84">
-        <v>0.01473716854129088</v>
+        <v>0.01068223802482997</v>
       </c>
       <c r="D84">
-        <v>0.00204148486879614</v>
+        <v>0.06664229750662408</v>
       </c>
       <c r="E84">
-        <v>0.009823610268899483</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.004689417165203796</v>
+      </c>
+      <c r="F84">
+        <v>-0.006885189259159771</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1288168569094658</v>
+        <v>-0.1386934550231025</v>
       </c>
       <c r="C85">
-        <v>0.0006802146595356767</v>
+        <v>0.02621621835873009</v>
       </c>
       <c r="D85">
-        <v>0.03628766316091037</v>
+        <v>0.01344121219722225</v>
       </c>
       <c r="E85">
-        <v>-0.01314177472400947</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.04102144166084329</v>
+      </c>
+      <c r="F85">
+        <v>-0.04594784005739939</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1284320995368243</v>
+        <v>-0.09631727965534599</v>
       </c>
       <c r="C86">
-        <v>-0.2453818862144166</v>
+        <v>-0.005633711572131514</v>
       </c>
       <c r="D86">
-        <v>0.2004660152893187</v>
+        <v>0.0353661326754098</v>
       </c>
       <c r="E86">
-        <v>0.8865398767900246</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.1678661820304123</v>
+      </c>
+      <c r="F86">
+        <v>0.8987588896697243</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1111123366679923</v>
+        <v>-0.09571991450587715</v>
       </c>
       <c r="C87">
-        <v>0.1038609120400645</v>
+        <v>0.02204199917596533</v>
       </c>
       <c r="D87">
-        <v>0.02608694290539561</v>
+        <v>0.09361287886720987</v>
       </c>
       <c r="E87">
-        <v>-0.004511090452546941</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.05415826632683358</v>
+      </c>
+      <c r="F87">
+        <v>-0.06766957781524313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.04886402370159591</v>
+        <v>-0.06086442052657347</v>
       </c>
       <c r="C88">
-        <v>-0.002579918112437349</v>
+        <v>0.002415102876337572</v>
       </c>
       <c r="D88">
-        <v>0.03232687656884815</v>
+        <v>0.0522243694172537</v>
       </c>
       <c r="E88">
-        <v>-0.04054037724325618</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02697378106116</v>
+      </c>
+      <c r="F88">
+        <v>-0.01047218192215127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1353673243139328</v>
+        <v>-0.1358309081263188</v>
       </c>
       <c r="C89">
-        <v>-0.2120835711654209</v>
+        <v>0.009425016980313224</v>
       </c>
       <c r="D89">
-        <v>-0.3065442553895534</v>
+        <v>-0.2526856081072648</v>
       </c>
       <c r="E89">
-        <v>-0.008293393695267515</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.09042694602962702</v>
+      </c>
+      <c r="F89">
+        <v>-0.006653246930063177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1020771508460036</v>
+        <v>-0.1481101412707237</v>
       </c>
       <c r="C90">
-        <v>-0.165988566671318</v>
+        <v>0.02725757468732301</v>
       </c>
       <c r="D90">
-        <v>-0.2439726690186745</v>
+        <v>-0.2657039828461987</v>
       </c>
       <c r="E90">
-        <v>-0.01250157915282451</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.1103952968343127</v>
+      </c>
+      <c r="F90">
+        <v>-0.008876624284469899</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08847105699286668</v>
+        <v>-0.1195728564628173</v>
       </c>
       <c r="C91">
-        <v>-0.002410437777499471</v>
+        <v>0.01691475583842187</v>
       </c>
       <c r="D91">
-        <v>0.03274262148542943</v>
+        <v>-0.009754278669176709</v>
       </c>
       <c r="E91">
-        <v>0.005020385453662008</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05812440293530723</v>
+      </c>
+      <c r="F91">
+        <v>0.01177005719262536</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1193025810201852</v>
+        <v>-0.1497990014007138</v>
       </c>
       <c r="C92">
-        <v>-0.171369923819151</v>
+        <v>0.01880202012834977</v>
       </c>
       <c r="D92">
-        <v>-0.2831146486646178</v>
+        <v>-0.292236787887241</v>
       </c>
       <c r="E92">
-        <v>-0.002513605984921234</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.1049819871404839</v>
+      </c>
+      <c r="F92">
+        <v>-0.00185571670568789</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1008170484787208</v>
+        <v>-0.1520439393962231</v>
       </c>
       <c r="C93">
-        <v>-0.1874370377014706</v>
+        <v>0.02328120588320661</v>
       </c>
       <c r="D93">
-        <v>-0.2743629835521095</v>
+        <v>-0.265379462712477</v>
       </c>
       <c r="E93">
-        <v>0.001252199898443083</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.07791583926636857</v>
+      </c>
+      <c r="F93">
+        <v>-0.009655863574159717</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1491513989756978</v>
+        <v>-0.1326522731679665</v>
       </c>
       <c r="C94">
-        <v>0.003370364000759896</v>
+        <v>0.02360683251284088</v>
       </c>
       <c r="D94">
-        <v>0.04579890907789362</v>
+        <v>0.04433263363299977</v>
       </c>
       <c r="E94">
-        <v>-0.0715357386029145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06097907925114266</v>
+      </c>
+      <c r="F94">
+        <v>-0.03429709860543801</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1157734969292621</v>
+        <v>-0.1259326211493861</v>
       </c>
       <c r="C95">
-        <v>0.004968192952812995</v>
+        <v>0.004751110096958984</v>
       </c>
       <c r="D95">
-        <v>0.04093194864205479</v>
+        <v>0.09084437499110777</v>
       </c>
       <c r="E95">
-        <v>-0.04020620466065247</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.04581935236266458</v>
+      </c>
+      <c r="F95">
+        <v>0.01076943714902159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01588259308444284</v>
+        <v>-0.09852023311732375</v>
       </c>
       <c r="C96">
-        <v>0.001832425348692269</v>
+        <v>-0.9888755897458855</v>
       </c>
       <c r="D96">
-        <v>0.0002149661843690356</v>
+        <v>-0.03451875305262795</v>
       </c>
       <c r="E96">
-        <v>-0.000646157899221162</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>-0.05758830098970583</v>
+      </c>
+      <c r="F96">
+        <v>-0.04226614455429848</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1715226956916044</v>
+        <v>-0.1895998060120891</v>
       </c>
       <c r="C97">
-        <v>-0.04015540187270145</v>
+        <v>-0.009559518982461376</v>
       </c>
       <c r="D97">
-        <v>0.02963756346389711</v>
+        <v>-0.01954599280966997</v>
       </c>
       <c r="E97">
-        <v>-0.04532767752288611</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.009078260078043399</v>
+      </c>
+      <c r="F97">
+        <v>0.09942878783143347</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2535791455984976</v>
+        <v>-0.2049685228320444</v>
       </c>
       <c r="C98">
-        <v>0.01851888972954803</v>
+        <v>0.007141760151219871</v>
       </c>
       <c r="D98">
-        <v>-0.03016717624419302</v>
+        <v>0.009250195282866108</v>
       </c>
       <c r="E98">
-        <v>0.09626899167996372</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.09502021612425386</v>
+      </c>
+      <c r="F98">
+        <v>0.1002697737472414</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.0492923921280258</v>
+        <v>-0.05555889788838694</v>
       </c>
       <c r="C99">
-        <v>-0.01755529440647988</v>
+        <v>-0.004295016196011502</v>
       </c>
       <c r="D99">
-        <v>0.0003797027022685622</v>
+        <v>0.03790751304352674</v>
       </c>
       <c r="E99">
-        <v>-0.05145766992347939</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.02518890173420543</v>
+      </c>
+      <c r="F99">
+        <v>-0.003483922193531853</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1297089396562074</v>
+        <v>-0.1235989469419938</v>
       </c>
       <c r="C100">
-        <v>0.7734210763897514</v>
+        <v>-0.05175349029344518</v>
       </c>
       <c r="D100">
-        <v>-0.4943347771704694</v>
+        <v>0.3487871958346569</v>
       </c>
       <c r="E100">
-        <v>0.259552936000892</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.8920657136691784</v>
+      </c>
+      <c r="F100">
+        <v>0.09134777587075464</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02745345807459053</v>
+        <v>-0.02721596537814235</v>
       </c>
       <c r="C101">
-        <v>0.01071703944551318</v>
+        <v>0.008336670889139438</v>
       </c>
       <c r="D101">
-        <v>0.0008669356254822558</v>
+        <v>0.03106355079359832</v>
       </c>
       <c r="E101">
-        <v>-0.009176992428450019</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.01100973455039246</v>
+      </c>
+      <c r="F101">
+        <v>0.01407339897998617</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
